--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit1-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.245608</v>
+        <v>0.3074763333333333</v>
       </c>
       <c r="H2">
-        <v>0.7368239999999999</v>
+        <v>0.9224289999999999</v>
       </c>
       <c r="I2">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="J2">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6629413333333334</v>
+        <v>0.7788713333333334</v>
       </c>
       <c r="N2">
-        <v>1.988824</v>
+        <v>2.336614</v>
       </c>
       <c r="O2">
-        <v>0.01938545156182102</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="P2">
-        <v>0.01938545156182102</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="Q2">
-        <v>0.1628236949973333</v>
+        <v>0.2394845017117778</v>
       </c>
       <c r="R2">
-        <v>1.465413254976</v>
+        <v>2.155360515406</v>
       </c>
       <c r="S2">
-        <v>0.002920752584056868</v>
+        <v>0.002592702303020851</v>
       </c>
       <c r="T2">
-        <v>0.002920752584056868</v>
+        <v>0.00259270230302085</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.245608</v>
+        <v>0.3074763333333333</v>
       </c>
       <c r="H3">
-        <v>0.7368239999999999</v>
+        <v>0.9224289999999999</v>
       </c>
       <c r="I3">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="J3">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>89.435529</v>
       </c>
       <c r="O3">
-        <v>0.8717453707996982</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="P3">
-        <v>0.8717453707996982</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="Q3">
-        <v>7.322027135543999</v>
+        <v>9.166436175548998</v>
       </c>
       <c r="R3">
-        <v>65.898244219896</v>
+        <v>82.497925579941</v>
       </c>
       <c r="S3">
-        <v>0.131343473546801</v>
+        <v>0.09923748724016378</v>
       </c>
       <c r="T3">
-        <v>0.131343473546801</v>
+        <v>0.09923748724016378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.245608</v>
+        <v>0.3074763333333333</v>
       </c>
       <c r="H4">
-        <v>0.7368239999999999</v>
+        <v>0.9224289999999999</v>
       </c>
       <c r="I4">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="J4">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.723095</v>
+        <v>5.508900000000001</v>
       </c>
       <c r="N4">
-        <v>11.169285</v>
+        <v>16.5267</v>
       </c>
       <c r="O4">
-        <v>0.1088691776384809</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="P4">
-        <v>0.1088691776384809</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="Q4">
-        <v>0.91442191676</v>
+        <v>1.6938563727</v>
       </c>
       <c r="R4">
-        <v>8.229797250839999</v>
+        <v>15.2447073543</v>
       </c>
       <c r="S4">
-        <v>0.01640301908354767</v>
+        <v>0.01833799384551094</v>
       </c>
       <c r="T4">
-        <v>0.01640301908354767</v>
+        <v>0.01833799384551094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3313006666666667</v>
+        <v>0.3074763333333333</v>
       </c>
       <c r="H5">
-        <v>0.9939020000000001</v>
+        <v>0.9224289999999999</v>
       </c>
       <c r="I5">
-        <v>0.2032350688265964</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="J5">
-        <v>0.2032350688265964</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.6629413333333334</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N5">
-        <v>1.988824</v>
+        <v>0.154567</v>
       </c>
       <c r="O5">
-        <v>0.01938545156182102</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="P5">
-        <v>0.01938545156182102</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="Q5">
-        <v>0.2196329056942223</v>
+        <v>0.01584189813811111</v>
       </c>
       <c r="R5">
-        <v>1.976696151248</v>
+        <v>0.142577083243</v>
       </c>
       <c r="S5">
-        <v>0.003939803582401345</v>
+        <v>0.0001715072394803009</v>
       </c>
       <c r="T5">
-        <v>0.003939803582401345</v>
+        <v>0.0001715072394803009</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -794,10 +794,10 @@
         <v>0.9939020000000001</v>
       </c>
       <c r="I6">
-        <v>0.2032350688265964</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J6">
-        <v>0.2032350688265964</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.811843</v>
+        <v>0.7788713333333334</v>
       </c>
       <c r="N6">
-        <v>89.435529</v>
+        <v>2.336614</v>
       </c>
       <c r="O6">
-        <v>0.8717453707996982</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="P6">
-        <v>0.8717453707996982</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="Q6">
-        <v>9.876683460462001</v>
+        <v>0.2580405919808889</v>
       </c>
       <c r="R6">
-        <v>88.89015114415801</v>
+        <v>2.322365327828</v>
       </c>
       <c r="S6">
-        <v>0.1771692304337435</v>
+        <v>0.002793593874842432</v>
       </c>
       <c r="T6">
-        <v>0.1771692304337435</v>
+        <v>0.002793593874842431</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -856,10 +856,10 @@
         <v>0.9939020000000001</v>
       </c>
       <c r="I7">
-        <v>0.2032350688265964</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J7">
-        <v>0.2032350688265964</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.723095</v>
+        <v>29.811843</v>
       </c>
       <c r="N7">
-        <v>11.169285</v>
+        <v>89.435529</v>
       </c>
       <c r="O7">
-        <v>0.1088691776384809</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="P7">
-        <v>0.1088691776384809</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="Q7">
-        <v>1.233463855563333</v>
+        <v>9.876683460462001</v>
       </c>
       <c r="R7">
-        <v>11.10117470007</v>
+        <v>88.89015114415801</v>
       </c>
       <c r="S7">
-        <v>0.02212603481045161</v>
+        <v>0.1069267521326555</v>
       </c>
       <c r="T7">
-        <v>0.02212603481045161</v>
+        <v>0.1069267521326555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,25 +903,25 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3515086666666667</v>
+        <v>0.3313006666666667</v>
       </c>
       <c r="H8">
-        <v>1.054526</v>
+        <v>0.9939020000000001</v>
       </c>
       <c r="I8">
-        <v>0.2156315855984146</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J8">
-        <v>0.2156315855984146</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6629413333333334</v>
+        <v>5.508900000000001</v>
       </c>
       <c r="N8">
-        <v>1.988824</v>
+        <v>16.5267</v>
       </c>
       <c r="O8">
-        <v>0.01938545156182102</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="P8">
-        <v>0.01938545156182102</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="Q8">
-        <v>0.2330296241582223</v>
+        <v>1.8251022426</v>
       </c>
       <c r="R8">
-        <v>2.097266617424</v>
+        <v>16.4259201834</v>
       </c>
       <c r="S8">
-        <v>0.004180115657816728</v>
+        <v>0.01975888524649704</v>
       </c>
       <c r="T8">
-        <v>0.004180115657816728</v>
+        <v>0.01975888524649703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3515086666666667</v>
+        <v>0.3313006666666667</v>
       </c>
       <c r="H9">
-        <v>1.054526</v>
+        <v>0.9939020000000001</v>
       </c>
       <c r="I9">
-        <v>0.2156315855984146</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J9">
-        <v>0.2156315855984146</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>29.811843</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N9">
-        <v>89.435529</v>
+        <v>0.154567</v>
       </c>
       <c r="O9">
-        <v>0.8717453707996982</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="P9">
-        <v>0.8717453707996982</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="Q9">
-        <v>10.479121183806</v>
+        <v>0.01706938338155556</v>
       </c>
       <c r="R9">
-        <v>94.31209065425401</v>
+        <v>0.153624450434</v>
       </c>
       <c r="S9">
-        <v>0.1879758365436167</v>
+        <v>0.0001847962155720929</v>
       </c>
       <c r="T9">
-        <v>0.1879758365436167</v>
+        <v>0.0001847962155720928</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3515086666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H10">
-        <v>1.054526</v>
+        <v>1.44181</v>
       </c>
       <c r="I10">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J10">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.723095</v>
+        <v>0.7788713333333334</v>
       </c>
       <c r="N10">
-        <v>11.169285</v>
+        <v>2.336614</v>
       </c>
       <c r="O10">
-        <v>0.1088691776384809</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="P10">
-        <v>0.1088691776384809</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="Q10">
-        <v>1.308700159323334</v>
+        <v>0.3743281590377777</v>
       </c>
       <c r="R10">
-        <v>11.77830143391</v>
+        <v>3.36895343134</v>
       </c>
       <c r="S10">
-        <v>0.02347563339698109</v>
+        <v>0.004052543997986287</v>
       </c>
       <c r="T10">
-        <v>0.02347563339698109</v>
+        <v>0.004052543997986286</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1730746666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H11">
-        <v>0.519224</v>
+        <v>1.44181</v>
       </c>
       <c r="I11">
-        <v>0.106171962000701</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J11">
-        <v>0.106171962000701</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,43 +1116,43 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6629413333333334</v>
+        <v>29.811843</v>
       </c>
       <c r="N11">
-        <v>1.988824</v>
+        <v>89.435529</v>
       </c>
       <c r="O11">
-        <v>0.01938545156182102</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="P11">
-        <v>0.01938545156182102</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="Q11">
-        <v>0.1147383502862222</v>
+        <v>14.32767111861</v>
       </c>
       <c r="R11">
-        <v>1.032645152576</v>
+        <v>128.94904006749</v>
       </c>
       <c r="S11">
-        <v>0.00205819142658809</v>
+        <v>0.1551139453310125</v>
       </c>
       <c r="T11">
-        <v>0.00205819142658809</v>
+        <v>0.1551139453310125</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1730746666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H12">
-        <v>0.519224</v>
+        <v>1.44181</v>
       </c>
       <c r="I12">
-        <v>0.106171962000701</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J12">
-        <v>0.106171962000701</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.811843</v>
+        <v>5.508900000000001</v>
       </c>
       <c r="N12">
-        <v>89.435529</v>
+        <v>16.5267</v>
       </c>
       <c r="O12">
-        <v>0.8717453707996982</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="P12">
-        <v>0.8717453707996982</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="Q12">
-        <v>5.159674789944001</v>
+        <v>2.647595703</v>
       </c>
       <c r="R12">
-        <v>46.437073109496</v>
+        <v>23.828361327</v>
       </c>
       <c r="S12">
-        <v>0.09255491638283253</v>
+        <v>0.02866334742987929</v>
       </c>
       <c r="T12">
-        <v>0.09255491638283253</v>
+        <v>0.02866334742987929</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1730746666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H13">
-        <v>0.519224</v>
+        <v>1.44181</v>
       </c>
       <c r="I13">
-        <v>0.106171962000701</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J13">
-        <v>0.106171962000701</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>3.723095</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N13">
-        <v>11.169285</v>
+        <v>0.154567</v>
       </c>
       <c r="O13">
-        <v>0.1088691776384809</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="P13">
-        <v>0.1088691776384809</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="Q13">
-        <v>0.6443734260933335</v>
+        <v>0.02476180514111111</v>
       </c>
       <c r="R13">
-        <v>5.799360834840001</v>
+        <v>0.22285624627</v>
       </c>
       <c r="S13">
-        <v>0.01155885419128035</v>
+        <v>0.0002680757575434994</v>
       </c>
       <c r="T13">
-        <v>0.01155885419128035</v>
+        <v>0.0002680757575434994</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5286433333333334</v>
+        <v>0.225236</v>
       </c>
       <c r="H14">
-        <v>1.58593</v>
+        <v>0.6757080000000001</v>
       </c>
       <c r="I14">
-        <v>0.3242941383598826</v>
+        <v>0.08815257507622103</v>
       </c>
       <c r="J14">
-        <v>0.3242941383598826</v>
+        <v>0.08815257507622101</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6629413333333334</v>
+        <v>0.7788713333333334</v>
       </c>
       <c r="N14">
-        <v>1.988824</v>
+        <v>2.336614</v>
       </c>
       <c r="O14">
-        <v>0.01938545156182102</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="P14">
-        <v>0.01938545156182102</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="Q14">
-        <v>0.3504595162577778</v>
+        <v>0.1754298636346667</v>
       </c>
       <c r="R14">
-        <v>3.15413564632</v>
+        <v>1.578868772712</v>
       </c>
       <c r="S14">
-        <v>0.006286588310957989</v>
+        <v>0.001899235266637989</v>
       </c>
       <c r="T14">
-        <v>0.006286588310957989</v>
+        <v>0.001899235266637988</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5286433333333334</v>
+        <v>0.225236</v>
       </c>
       <c r="H15">
-        <v>1.58593</v>
+        <v>0.6757080000000001</v>
       </c>
       <c r="I15">
-        <v>0.3242941383598826</v>
+        <v>0.08815257507622103</v>
       </c>
       <c r="J15">
-        <v>0.3242941383598826</v>
+        <v>0.08815257507622101</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>89.435529</v>
       </c>
       <c r="O15">
-        <v>0.8717453707996982</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="P15">
-        <v>0.8717453707996982</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="Q15">
-        <v>15.75983205633</v>
+        <v>6.714700269948001</v>
       </c>
       <c r="R15">
-        <v>141.83848850697</v>
+        <v>60.43230242953201</v>
       </c>
       <c r="S15">
-        <v>0.2827019138927045</v>
+        <v>0.07269455321556088</v>
       </c>
       <c r="T15">
-        <v>0.2827019138927045</v>
+        <v>0.07269455321556087</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5286433333333334</v>
+        <v>0.225236</v>
       </c>
       <c r="H16">
-        <v>1.58593</v>
+        <v>0.6757080000000001</v>
       </c>
       <c r="I16">
-        <v>0.3242941383598826</v>
+        <v>0.08815257507622103</v>
       </c>
       <c r="J16">
-        <v>0.3242941383598826</v>
+        <v>0.08815257507622101</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.723095</v>
+        <v>5.508900000000001</v>
       </c>
       <c r="N16">
-        <v>11.169285</v>
+        <v>16.5267</v>
       </c>
       <c r="O16">
-        <v>0.1088691776384809</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="P16">
-        <v>0.1088691776384809</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="Q16">
-        <v>1.968189351116667</v>
+        <v>1.2408026004</v>
       </c>
       <c r="R16">
-        <v>17.71370416005</v>
+        <v>11.1672234036</v>
       </c>
       <c r="S16">
-        <v>0.03530563615622016</v>
+        <v>0.01343315219422038</v>
       </c>
       <c r="T16">
-        <v>0.03530563615622016</v>
+        <v>0.01343315219422037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.225236</v>
+      </c>
+      <c r="H17">
+        <v>0.6757080000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.08815257507622103</v>
+      </c>
+      <c r="J17">
+        <v>0.08815257507622101</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.154567</v>
+      </c>
+      <c r="O17">
+        <v>0.001425192624187658</v>
+      </c>
+      <c r="P17">
+        <v>0.001425192624187658</v>
+      </c>
+      <c r="Q17">
+        <v>0.01160468427066667</v>
+      </c>
+      <c r="R17">
+        <v>0.104442158436</v>
+      </c>
+      <c r="S17">
+        <v>0.000125634399801779</v>
+      </c>
+      <c r="T17">
+        <v>0.000125634399801779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.210453666666667</v>
+      </c>
+      <c r="H18">
+        <v>3.631361</v>
+      </c>
+      <c r="I18">
+        <v>0.4737457943096146</v>
+      </c>
+      <c r="J18">
+        <v>0.4737457943096145</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.7788713333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.336614</v>
+      </c>
+      <c r="O18">
+        <v>0.02154486428780801</v>
+      </c>
+      <c r="P18">
+        <v>0.02154486428780801</v>
+      </c>
+      <c r="Q18">
+        <v>0.942787661294889</v>
+      </c>
+      <c r="R18">
+        <v>8.485088951653999</v>
+      </c>
+      <c r="S18">
+        <v>0.01020678884532045</v>
+      </c>
+      <c r="T18">
+        <v>0.01020678884532045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.210453666666667</v>
+      </c>
+      <c r="H19">
+        <v>3.631361</v>
+      </c>
+      <c r="I19">
+        <v>0.4737457943096146</v>
+      </c>
+      <c r="J19">
+        <v>0.4737457943096145</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>29.811843</v>
+      </c>
+      <c r="N19">
+        <v>89.435529</v>
+      </c>
+      <c r="O19">
+        <v>0.8246446930529893</v>
+      </c>
+      <c r="P19">
+        <v>0.8246446930529893</v>
+      </c>
+      <c r="Q19">
+        <v>36.08585466944101</v>
+      </c>
+      <c r="R19">
+        <v>324.772692024969</v>
+      </c>
+      <c r="S19">
+        <v>0.3906719551335967</v>
+      </c>
+      <c r="T19">
+        <v>0.3906719551335966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.210453666666667</v>
+      </c>
+      <c r="H20">
+        <v>3.631361</v>
+      </c>
+      <c r="I20">
+        <v>0.4737457943096146</v>
+      </c>
+      <c r="J20">
+        <v>0.4737457943096145</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.508900000000001</v>
+      </c>
+      <c r="N20">
+        <v>16.5267</v>
+      </c>
+      <c r="O20">
+        <v>0.152385250035015</v>
+      </c>
+      <c r="P20">
+        <v>0.152385250035015</v>
+      </c>
+      <c r="Q20">
+        <v>6.668268204300001</v>
+      </c>
+      <c r="R20">
+        <v>60.01441383870001</v>
+      </c>
+      <c r="S20">
+        <v>0.07219187131890742</v>
+      </c>
+      <c r="T20">
+        <v>0.07219187131890742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.210453666666667</v>
+      </c>
+      <c r="H21">
+        <v>3.631361</v>
+      </c>
+      <c r="I21">
+        <v>0.4737457943096146</v>
+      </c>
+      <c r="J21">
+        <v>0.4737457943096145</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.154567</v>
+      </c>
+      <c r="O21">
+        <v>0.001425192624187658</v>
+      </c>
+      <c r="P21">
+        <v>0.001425192624187658</v>
+      </c>
+      <c r="Q21">
+        <v>0.06236539729855557</v>
+      </c>
+      <c r="R21">
+        <v>0.5612885756870001</v>
+      </c>
+      <c r="S21">
+        <v>0.0006751790117899861</v>
+      </c>
+      <c r="T21">
+        <v>0.000675179011789986</v>
       </c>
     </row>
   </sheetData>
